--- a/Documentazione/booklets/database_size.xlsx
+++ b/Documentazione/booklets/database_size.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="88">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -280,7 +280,11 @@
     <t xml:space="preserve">function points</t>
   </si>
   <si>
-    <t xml:space="preserve">database size</t>
+    <t xml:space="preserve">conversion FP to 
+SLOC Java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATA</t>
   </si>
 </sst>
 </file>
@@ -361,7 +365,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -372,6 +376,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -386,15 +394,58 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>85680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>556560</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>83880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:srcRect l="1263" t="0" r="0" b="0"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12519720" y="10489680"/>
+          <a:ext cx="6910920" cy="5037480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G98" activeCellId="0" sqref="G98"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K97" activeCellId="0" sqref="K97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2033,19 +2084,21 @@
         <v>232</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F97" s="0" t="s">
+    <row r="97" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F97" s="3" t="s">
         <v>86</v>
       </c>
       <c r="G97" s="0" t="n">
-        <f aca="false">G95/G96</f>
-        <v>87885.3448275862</v>
+        <v>53</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G98" s="0" t="str">
-        <f aca="false">IF(E98*F98=0, "", E98*F98)</f>
-        <v/>
+      <c r="F98" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G98" s="0" t="n">
+        <f aca="false">G95/(G96*G97)</f>
+        <v>1658.21405335068</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2132,13 +2185,19 @@
         <v/>
       </c>
     </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G113" s="0" t="str">
+        <f aca="false">IF(E113*F113=0, "", E113*F113)</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D1:D1112" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D1:D1113" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:C1112" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:C1113" type="list">
       <formula1>"varchar,bigint,datetime,bytea"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2150,5 +2209,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>